--- a/2017年下半年个人周报.xlsx
+++ b/2017年下半年个人周报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="54">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -203,6 +203,45 @@
   <si>
     <t>评估期间：2017年12月24日-12月30日</t>
     <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续解决模糊图像2.0.0的bug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动更新系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊图像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  1.改成MVVM模式,方便后续修改;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 1.继续熟悉代码结构;
+ 2.评估2.0.0版本的bug;
+ 3.解决系统最大化后还原,主界面窗口显示不完整;
+ 4.多帧超分辨未选择基准帧执行算法时,系统崩溃;如果未选择基准帧则给相应的提示信息"未 选中基准帧无法执行超分辨";
+ 5.配置文件改成Config.xml;
+ 6.【自定义滤波】输入非法参数（应当禁用执行按钮);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续优化逻辑和UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2123,18 +2162,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2144,7 +2183,10 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2153,10 +2195,7 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2414,8 +2453,36 @@
     <cellStyle name="注释 5" xfId="247"/>
     <cellStyle name="注释 6" xfId="248"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2976,7 +3043,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3107,10 +3174,18 @@
       <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="16"/>
+      <c r="B6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="F6" s="45"/>
       <c r="G6" s="11"/>
       <c r="H6" s="12"/>
@@ -3125,10 +3200,18 @@
       <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="16"/>
+      <c r="B7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="F7" s="45"/>
       <c r="G7" s="11"/>
       <c r="H7" s="15"/>
@@ -3958,6 +4041,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:N1"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="A23:D23"/>
@@ -3965,7 +4049,6 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:K4"/>
-    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4045,22 +4128,22 @@
         <v>11</v>
       </c>
       <c r="B4" s="36"/>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="68" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="69"/>
       <c r="E4" s="70"/>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="71" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="69"/>
       <c r="H4" s="70"/>
-      <c r="I4" s="68" t="s">
+      <c r="I4" s="71" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="69"/>
       <c r="K4" s="70"/>
-      <c r="L4" s="68" t="s">
+      <c r="L4" s="71" t="s">
         <v>29</v>
       </c>
       <c r="M4" s="69"/>
@@ -4426,13 +4509,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A16:A21"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:N4"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A16:A21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5481,22 +5564,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="52" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
     </row>
     <row r="2" spans="1:14" s="52" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="53"/>
@@ -5524,26 +5607,26 @@
         <v>11</v>
       </c>
       <c r="B4" s="42"/>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="75" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="75" t="s">
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="75" t="s">
+      <c r="J4" s="77"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="76"/>
-      <c r="N4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="78"/>
     </row>
     <row r="5" spans="1:14" s="40" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">

--- a/2017年下半年个人周报.xlsx
+++ b/2017年下半年个人周报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="67">
   <si>
     <t xml:space="preserve">                          浙江捷尚视觉科技股份有限公司7月份工作周报</t>
   </si>
@@ -227,6 +227,37 @@
   <si>
     <t>IV007：熟悉代码业务(视频研判
 目标检索);</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊图像(威海陪标版)：解决测试bug和相关修改调整</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动更新: 1.根据配置在启动时是否检查更新;
+            2.下载异常提示修改;
+            3.窗口最前化;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>IV007：
+        1.视频研判： 
+         没有匹配度排序？
+          只有搜索方式为 1或者2时 才有。
+          //搜索方式： 1，以图搜图； 2，语义检索
+          public uint nSearchFlag;
+         选中图像排到最后(键盘+刷新)
+        2.视侦专家:
+         熟悉代码架构;
+         重点理解车型库部分;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1818,6 +1849,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1831,15 +1871,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2676,10 +2707,10 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2702,22 +2733,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
@@ -2740,28 +2771,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="51"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56" t="s">
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="55"/>
-    </row>
-    <row r="5" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M4" s="57"/>
+      <c r="N4" s="58"/>
+    </row>
+    <row r="5" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
@@ -2805,7 +2836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -2837,11 +2868,15 @@
         <v>57</v>
       </c>
       <c r="K6" s="19"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="18"/>
+      <c r="L6" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>65</v>
+      </c>
       <c r="N6" s="19"/>
     </row>
-    <row r="7" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <v>2</v>
       </c>
@@ -2871,11 +2906,15 @@
         <v>57</v>
       </c>
       <c r="K7" s="19"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="18"/>
+      <c r="L7" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="N7" s="19"/>
     </row>
-    <row r="8" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>3</v>
       </c>
@@ -2903,7 +2942,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="19"/>
     </row>
-    <row r="9" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="202.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>4</v>
       </c>
@@ -2923,8 +2962,12 @@
         <v>57</v>
       </c>
       <c r="K9" s="19"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="18"/>
+      <c r="L9" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>65</v>
+      </c>
       <c r="N9" s="19"/>
     </row>
     <row r="10" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -3036,7 +3079,7 @@
       <c r="N15" s="19"/>
     </row>
     <row r="16" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -3080,7 +3123,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="58"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="25"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -3096,7 +3139,7 @@
       <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="58"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="25"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
@@ -3112,7 +3155,7 @@
       <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="25"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
@@ -3128,7 +3171,7 @@
       <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="58"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="25"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
@@ -3144,7 +3187,7 @@
       <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
@@ -3160,12 +3203,12 @@
       <c r="N21" s="34"/>
     </row>
     <row r="23" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="36"/>
     </row>
   </sheetData>
@@ -3220,22 +3263,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
@@ -3258,31 +3301,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="41"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56" t="s">
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="56" t="s">
+      <c r="M4" s="57"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="55"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="58"/>
     </row>
     <row r="5" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42" t="s">
@@ -3548,7 +3591,7 @@
       <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -3601,7 +3644,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="58"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="25"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -3620,7 +3663,7 @@
       <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="58"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="25"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
@@ -3639,7 +3682,7 @@
       <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="25"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
@@ -3658,7 +3701,7 @@
       <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="58"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="25"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
@@ -3677,7 +3720,7 @@
       <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
@@ -3696,12 +3739,12 @@
       <c r="Q21" s="34"/>
     </row>
     <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="36"/>
     </row>
   </sheetData>
@@ -3753,22 +3796,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
@@ -4037,7 +4080,7 @@
       <c r="N15" s="19"/>
     </row>
     <row r="16" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -4081,7 +4124,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="58"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="25"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -4097,7 +4140,7 @@
       <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="58"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="25"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
@@ -4113,7 +4156,7 @@
       <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="25"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
@@ -4129,7 +4172,7 @@
       <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="58"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="25"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
@@ -4145,7 +4188,7 @@
       <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
@@ -4161,12 +4204,12 @@
       <c r="N21" s="34"/>
     </row>
     <row r="23" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="36"/>
     </row>
   </sheetData>
@@ -4218,19 +4261,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
@@ -4250,21 +4293,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="41"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
       <c r="L4" s="64" t="s">
         <v>44</v>
       </c>
@@ -4499,7 +4542,7 @@
       <c r="N15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -4541,7 +4584,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="58"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="25"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -4557,7 +4600,7 @@
       <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="58"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="25"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
@@ -4573,7 +4616,7 @@
       <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="25"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
@@ -4589,7 +4632,7 @@
       <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="58"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="25"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
@@ -4605,7 +4648,7 @@
       <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
@@ -4621,23 +4664,23 @@
       <c r="N21" s="34"/>
     </row>
     <row r="23" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="L4:N4"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4681,22 +4724,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
@@ -4722,31 +4765,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="41"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56" t="s">
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="56" t="s">
+      <c r="M4" s="57"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="55"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="58"/>
     </row>
     <row r="5" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42" t="s">
@@ -5012,7 +5055,7 @@
       <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -5065,7 +5108,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="58"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="25"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -5084,7 +5127,7 @@
       <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="58"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="25"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
@@ -5103,7 +5146,7 @@
       <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="25"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
@@ -5122,7 +5165,7 @@
       <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="58"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="25"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
@@ -5141,7 +5184,7 @@
       <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
@@ -5160,12 +5203,12 @@
       <c r="Q21" s="34"/>
     </row>
     <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="36"/>
     </row>
   </sheetData>
@@ -5506,7 +5549,7 @@
       <c r="N15" s="19"/>
     </row>
     <row r="16" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -5550,7 +5593,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="58"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="25"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -5566,7 +5609,7 @@
       <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="58"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="25"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
@@ -5582,7 +5625,7 @@
       <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="25"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
@@ -5598,7 +5641,7 @@
       <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="58"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="25"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
@@ -5614,7 +5657,7 @@
       <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
@@ -5630,12 +5673,12 @@
       <c r="N21" s="34"/>
     </row>
     <row r="23" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="36"/>
     </row>
   </sheetData>

--- a/2017年下半年个人周报.xlsx
+++ b/2017年下半年个人周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="7月份周报" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="74">
   <si>
     <t xml:space="preserve">                          浙江捷尚视觉科技股份有限公司7月份工作周报</t>
   </si>
@@ -254,6 +254,35 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>图祯魔方自动更新</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊图像2.0.1</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.管理员启动;
+   2.自定义下载超时时间,保证网络异常时能提示用户;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继续解决测试提出的bug;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>视侦专家</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉车型库代码结构</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -2706,11 +2735,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3233,11 +3262,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3380,13 +3409,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <v>1</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="E6" s="17"/>
       <c r="F6" s="10"/>
       <c r="G6" s="18"/>
@@ -3405,9 +3440,15 @@
       <c r="A7" s="22">
         <v>2</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="E7" s="17"/>
       <c r="F7" s="10"/>
       <c r="G7" s="18"/>
@@ -3426,9 +3467,15 @@
       <c r="A8" s="22">
         <v>3</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="E8" s="17"/>
       <c r="F8" s="10"/>
       <c r="G8" s="18"/>

--- a/2017年下半年个人周报.xlsx
+++ b/2017年下半年个人周报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="78">
   <si>
     <t xml:space="preserve">                          浙江捷尚视觉科技股份有限公司7月份工作周报</t>
   </si>
@@ -287,6 +287,24 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片播放器</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉现有的图片播放器功能及实现方式;
+   2.开发新的图片播放器实现原有功能;
+   3.新的播放器提供的属性都是DependencyProperty,符合mvvm架构下的应用;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续优化完成</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1721,7 +1739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1939,6 +1957,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3263,10 +3284,10 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3490,17 +3511,25 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="19"/>
     </row>
-    <row r="9" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>4</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="20"/>
+      <c r="F9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="73" t="s">
+        <v>77</v>
+      </c>
       <c r="I9" s="10"/>
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>

--- a/2017年下半年个人周报.xlsx
+++ b/2017年下半年个人周报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="85">
   <si>
     <t xml:space="preserve">                          浙江捷尚视觉科技股份有限公司7月份工作周报</t>
   </si>
@@ -305,6 +305,40 @@
   </si>
   <si>
     <t>继续优化完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台对接</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.接手平台对接的后续工作;
+  2.优化了主题/UI/界面的渲染,采用了metro框架;
+  3.熟悉了业务逻辑;
+  4.解决了一些bug;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  1.完成功能开发;
+  2.两个控件:一个带播放控制,一个需要外围控制;
+  3.暴露了以下依赖属性:图像列表/当前帧的位置/总帧数(图像列表总数)/播放速度/播放/暂停控制/填充(Image.Stretch);</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一管理已有的公共组件(自定义控件,公共类库等),可以搭建组内的nuget平台,可以更好管理这些资源;</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续优化</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1896,6 +1930,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1957,9 +1994,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2783,22 +2817,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
@@ -2821,26 +2855,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="51"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59" t="s">
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="57"/>
-      <c r="N4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="59"/>
     </row>
     <row r="5" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42" t="s">
@@ -3129,7 +3163,7 @@
       <c r="N15" s="19"/>
     </row>
     <row r="16" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="54" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -3173,7 +3207,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="25"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -3189,7 +3223,7 @@
       <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="25"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
@@ -3205,7 +3239,7 @@
       <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="25"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
@@ -3221,7 +3255,7 @@
       <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="25"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
@@ -3237,7 +3271,7 @@
       <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
@@ -3253,12 +3287,12 @@
       <c r="N21" s="34"/>
     </row>
     <row r="23" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="36"/>
     </row>
   </sheetData>
@@ -3284,10 +3318,10 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3313,22 +3347,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
@@ -3351,31 +3385,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="41"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59" t="s">
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="57"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="59" t="s">
+      <c r="M4" s="58"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
     </row>
     <row r="5" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42" t="s">
@@ -3511,7 +3545,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="19"/>
     </row>
-    <row r="9" spans="1:17" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>4</v>
       </c>
@@ -3527,11 +3561,15 @@
       <c r="G9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="73" t="s">
+      <c r="H9" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="18"/>
+      <c r="I9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="K9" s="19"/>
       <c r="L9" s="37"/>
       <c r="M9" s="18"/>
@@ -3540,20 +3578,28 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="19"/>
     </row>
-    <row r="10" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>5</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="17"/>
       <c r="F10" s="10"/>
       <c r="G10" s="18"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="52" t="s">
+        <v>84</v>
+      </c>
       <c r="L10" s="37"/>
       <c r="M10" s="18"/>
       <c r="N10" s="19"/>
@@ -3561,18 +3607,22 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="19"/>
     </row>
-    <row r="11" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>6</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="17"/>
       <c r="F11" s="10"/>
       <c r="G11" s="18"/>
       <c r="H11" s="20"/>
-      <c r="I11" s="10"/>
+      <c r="I11" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="J11" s="18"/>
       <c r="K11" s="19"/>
       <c r="L11" s="37"/>
@@ -3667,7 +3717,7 @@
       <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="54" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -3720,7 +3770,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="25"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -3739,7 +3789,7 @@
       <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="25"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
@@ -3758,7 +3808,7 @@
       <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="25"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
@@ -3777,7 +3827,7 @@
       <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="25"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
@@ -3796,7 +3846,7 @@
       <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
@@ -3815,12 +3865,12 @@
       <c r="Q21" s="34"/>
     </row>
     <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="36"/>
     </row>
   </sheetData>
@@ -3872,22 +3922,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
@@ -3910,26 +3960,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="41"/>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63" t="s">
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63" t="s">
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="63" t="s">
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="61"/>
-      <c r="N4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="63"/>
     </row>
     <row r="5" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42" t="s">
@@ -4156,7 +4206,7 @@
       <c r="N15" s="19"/>
     </row>
     <row r="16" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="54" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -4200,7 +4250,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="25"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -4216,7 +4266,7 @@
       <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="25"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
@@ -4232,7 +4282,7 @@
       <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="25"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
@@ -4248,7 +4298,7 @@
       <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="25"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
@@ -4264,7 +4314,7 @@
       <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
@@ -4280,12 +4330,12 @@
       <c r="N21" s="34"/>
     </row>
     <row r="23" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="36"/>
     </row>
   </sheetData>
@@ -4337,19 +4387,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
@@ -4369,26 +4419,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="41"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="64" t="s">
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="65"/>
-      <c r="N4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="67"/>
       <c r="O4" s="48"/>
       <c r="P4" s="48"/>
       <c r="Q4" s="48"/>
@@ -4618,7 +4668,7 @@
       <c r="N15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="54" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -4660,7 +4710,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="25"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -4676,7 +4726,7 @@
       <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="25"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
@@ -4692,7 +4742,7 @@
       <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="25"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
@@ -4708,7 +4758,7 @@
       <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="25"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
@@ -4724,7 +4774,7 @@
       <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
@@ -4740,12 +4790,12 @@
       <c r="N21" s="34"/>
     </row>
     <row r="23" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="36"/>
     </row>
   </sheetData>
@@ -4800,22 +4850,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
@@ -4841,31 +4891,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="41"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59" t="s">
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="57"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="59" t="s">
+      <c r="M4" s="58"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
     </row>
     <row r="5" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42" t="s">
@@ -5131,7 +5181,7 @@
       <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="54" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -5184,7 +5234,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="25"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -5203,7 +5253,7 @@
       <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="25"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
@@ -5222,7 +5272,7 @@
       <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="25"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
@@ -5241,7 +5291,7 @@
       <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="25"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
@@ -5260,7 +5310,7 @@
       <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
@@ -5279,12 +5329,12 @@
       <c r="Q21" s="34"/>
     </row>
     <row r="23" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="36"/>
     </row>
   </sheetData>
@@ -5338,22 +5388,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
@@ -5372,35 +5422,35 @@
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72" t="s">
+      <c r="D4" s="71"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72" t="s">
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="72" t="s">
+      <c r="J4" s="71"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="70"/>
-      <c r="N4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="72"/>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
@@ -5625,7 +5675,7 @@
       <c r="N15" s="19"/>
     </row>
     <row r="16" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="54" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -5669,7 +5719,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="53"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="25"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -5685,7 +5735,7 @@
       <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="25"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
@@ -5701,7 +5751,7 @@
       <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="25"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
@@ -5717,7 +5767,7 @@
       <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="25"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
@@ -5733,7 +5783,7 @@
       <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
@@ -5749,12 +5799,12 @@
       <c r="N21" s="34"/>
     </row>
     <row r="23" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="36"/>
     </row>
   </sheetData>
